--- a/data/georgia_census/adjara/batumi/education_graduates.xlsx
+++ b/data/georgia_census/adjara/batumi/education_graduates.xlsx
@@ -1845,13 +1845,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EB5B233-464D-4B4C-858B-44D83E3B8DD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C24849D-153E-437A-AF26-5C740F36DB96}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68C7F86-501C-40CF-A67D-0D3AC0D77DF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D55DFA-FCF6-45F0-8230-2DE32980E297}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43C4A4A-B593-4B2F-8582-1DEBF70376B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A4CCD2-DC76-4A1A-9CFB-C16177BC0D9F}"/>
 </file>